--- a/grupos/6BEV - Estadisticos 2020.xlsx
+++ b/grupos/6BEV - Estadisticos 2020.xlsx
@@ -2352,6 +2352,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3828,7 +3829,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4235,6 +4237,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6BEV - Estadisticos 2020.xlsx
+++ b/grupos/6BEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="107">
   <si>
     <t>Materia</t>
   </si>
@@ -146,15 +146,15 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
     <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
     <t>RICO</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>ALMANZA</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -326,19 +332,13 @@
     <t>CARLOS FERNANDO</t>
   </si>
   <si>
+    <t>MARIO</t>
+  </si>
+  <si>
     <t>NESTOR</t>
   </si>
   <si>
     <t>BRENDA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ALMANZA</t>
-  </si>
-  <si>
-    <t>MARIO</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1129,7 +1129,7 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1170,7 +1170,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1188,7 +1188,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1365,7 +1365,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1583,7 +1583,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -1660,7 +1660,7 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1819,7 +1819,7 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -1896,7 +1896,7 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2014,7 +2014,7 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2158,62 +2158,62 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.73</v>
+        <v>27.27</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>77.27</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.27</v>
+        <v>31.82</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>72.73</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2222,13 +2222,13 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.82</v>
+        <v>54.55</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2237,15 +2237,15 @@
         <v>7.1</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>68.18000000000001</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -2254,25 +2254,25 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>54.55</v>
+        <v>59.09</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>45.45</v>
+        <v>40.91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2346,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2384,93 +2384,93 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920040</v>
+        <v>18330051920039</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920040</v>
+        <v>18330051920039</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920040</v>
+        <v>18330051920039</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920040</v>
+        <v>18330051920039</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -2478,19 +2478,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920042</v>
+        <v>18330051920039</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -2498,39 +2498,39 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920042</v>
+        <v>18330051920040</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920042</v>
+        <v>18330051920040</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -2553,15 +2553,15 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -2570,18 +2570,18 @@
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -2590,18 +2590,18 @@
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -2610,27 +2610,27 @@
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920041</v>
+        <v>18330051920042</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2638,30 +2638,30 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920041</v>
+        <v>18330051920042</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920045</v>
+        <v>18330051920042</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -2670,7 +2670,7 @@
         <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2678,136 +2678,136 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920044</v>
+        <v>18330051920042</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920051</v>
+        <v>18330051920042</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920051</v>
+        <v>18330051920042</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920051</v>
+        <v>18330051920041</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920051</v>
+        <v>18330051920041</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920051</v>
+        <v>18330051920041</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920049</v>
+        <v>18330051920041</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -2818,179 +2818,179 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920049</v>
+        <v>18330051920041</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920049</v>
+        <v>18330051920041</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920049</v>
+        <v>18330051920045</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920049</v>
+        <v>18330051920045</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920049</v>
+        <v>18330051920045</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920053</v>
+        <v>18330051920045</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920053</v>
+        <v>18330051920045</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920053</v>
+        <v>18330051920044</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920058</v>
+        <v>18330051920044</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
         <v>43</v>
@@ -2998,299 +2998,299 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920058</v>
+        <v>18330051920044</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920058</v>
+        <v>18330051920044</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920058</v>
+        <v>18330051920044</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920066</v>
+        <v>18330051920044</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920066</v>
+        <v>18330051920051</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920066</v>
+        <v>18330051920051</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920063</v>
+        <v>18330051920051</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920063</v>
+        <v>18330051920051</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920063</v>
+        <v>18330051920051</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920063</v>
+        <v>18330051920049</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920064</v>
+        <v>18330051920049</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920064</v>
+        <v>18330051920049</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920064</v>
+        <v>18330051920049</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920068</v>
+        <v>18330051920049</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920068</v>
+        <v>18330051920049</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -3298,79 +3298,79 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920068</v>
+        <v>18330051920053</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920068</v>
+        <v>18330051920053</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920068</v>
+        <v>18330051920053</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920054</v>
+        <v>18330051920053</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -3378,279 +3378,279 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920071</v>
+        <v>18330051920053</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920071</v>
+        <v>18330051920053</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920071</v>
+        <v>18330051920058</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920071</v>
+        <v>18330051920058</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920071</v>
+        <v>18330051920058</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920071</v>
+        <v>18330051920058</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920073</v>
+        <v>18330051920058</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920073</v>
+        <v>18330051920058</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920073</v>
+        <v>18330051920066</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920073</v>
+        <v>18330051920066</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920073</v>
+        <v>18330051920066</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920075</v>
+        <v>18330051920066</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920077</v>
+        <v>18330051920066</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920077</v>
+        <v>18330051920066</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -3658,59 +3658,59 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920077</v>
+        <v>18330051920063</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920077</v>
+        <v>18330051920063</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>18330051920077</v>
+        <v>18330051920063</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
@@ -3718,19 +3718,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>18330051920077</v>
+        <v>18330051920063</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3738,59 +3738,59 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18330051920055</v>
+        <v>18330051920063</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18330051920055</v>
+        <v>18330051920064</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920055</v>
+        <v>18330051920064</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
@@ -3798,22 +3798,1082 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
+        <v>18330051920064</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920064</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920064</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920068</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920068</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920068</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920068</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920068</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920068</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920054</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920054</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920054</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920054</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920054</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920071</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920071</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920071</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920071</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920071</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920071</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920073</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920073</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920073</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920073</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920073</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920073</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920075</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920075</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920075</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920075</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920075</v>
+      </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920077</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920077</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920077</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920077</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920077</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920077</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920080</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920080</v>
+      </c>
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>18330051920080</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920080</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920080</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920055</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920055</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920055</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920055</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920055</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920055</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
         <v>17330051920470</v>
       </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+      <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>17330051920470</v>
+      </c>
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>17330051920470</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>17330051920470</v>
+      </c>
+      <c r="B124" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" t="s">
+        <v>106</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>17330051920470</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>17330051920470</v>
+      </c>
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3858,10 +4918,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3875,10 +4935,10 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -3892,10 +4952,10 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3909,10 +4969,10 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -3920,16 +4980,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920051</v>
+        <v>18330051920068</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3937,50 +4997,50 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920068</v>
+        <v>18330051920051</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920073</v>
+        <v>18330051920058</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920040</v>
+        <v>18330051920073</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -3988,50 +5048,50 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920058</v>
+        <v>18330051920040</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920063</v>
+        <v>18330051920042</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920042</v>
+        <v>18330051920053</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4039,16 +5099,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920053</v>
+        <v>18330051920066</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4056,16 +5116,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920066</v>
+        <v>18330051920063</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -4073,16 +5133,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920064</v>
+        <v>18330051920055</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -4090,19 +5150,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920055</v>
+        <v>18330051920064</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4113,10 +5173,10 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4124,16 +5184,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920045</v>
+        <v>18330051920075</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4141,16 +5201,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920044</v>
+        <v>17330051920470</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4158,53 +5218,53 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920054</v>
+        <v>18330051920045</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920075</v>
+        <v>18330051920044</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17330051920470</v>
+        <v>18330051920054</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4212,13 +5272,13 @@
         <v>18330051920080</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
         <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>106</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4231,7 +5291,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4264,144 +5324,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920039</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920045</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920044</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920054</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920075</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>17330051920470</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6BEV - Estadisticos 2020.xlsx
+++ b/grupos/6BEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="107">
   <si>
     <t>Materia</t>
   </si>
@@ -146,16 +146,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Bautista Sarao Eutiquio</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
     <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
     <t>Zarate Amezcua Eladio Jorge</t>
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -860,10 +860,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -878,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -919,10 +919,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -937,13 +937,13 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -978,13 +978,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -996,10 +996,10 @@
         <v>-1</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1055,10 +1055,10 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1114,13 +1114,13 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1155,13 +1155,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1173,10 +1173,10 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1214,13 +1214,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1232,10 +1232,10 @@
         <v>-1</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1273,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1291,10 +1291,10 @@
         <v>-1</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1350,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1391,10 +1391,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1409,13 +1409,13 @@
         <v>-1</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1450,10 +1450,10 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1468,13 +1468,13 @@
         <v>-1</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1509,10 +1509,10 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -1527,10 +1527,10 @@
         <v>-1</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>-1</v>
@@ -1568,10 +1568,10 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1586,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>-1</v>
@@ -1627,10 +1627,10 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1645,13 +1645,13 @@
         <v>6</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1686,13 +1686,13 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -1704,10 +1704,10 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -1745,13 +1745,13 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -1763,10 +1763,10 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>-1</v>
@@ -1804,10 +1804,10 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1822,10 +1822,10 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -1866,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1881,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -1922,13 +1922,13 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -1940,10 +1940,10 @@
         <v>-1</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -1999,13 +1999,13 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2058,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2158,89 +2158,83 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>27.27</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>72.73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>31.82</v>
-      </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.1</v>
+        <v>54.55</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>68.18000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>31.82</v>
+      </c>
+      <c r="G4">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="H4">
+        <v>6.3</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>54.55</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.1</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>45.45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2248,63 +2242,63 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>59.09</v>
+        <v>31.82</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>40.91</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>36.36</v>
+      </c>
+      <c r="G6">
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>31.82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2318,25 +2312,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>68.18000000000001</v>
+        <v>45.45</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>31.82</v>
+        <v>54.55</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +2340,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2393,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2410,10 +2404,10 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2430,64 +2424,64 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920039</v>
+        <v>18330051920040</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920039</v>
+        <v>18330051920040</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920039</v>
+        <v>18330051920040</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2498,59 +2492,59 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920040</v>
+        <v>18330051920042</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920040</v>
+        <v>18330051920042</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920040</v>
+        <v>18330051920042</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -2558,19 +2552,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920040</v>
+        <v>18330051920041</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -2578,47 +2572,47 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920040</v>
+        <v>18330051920041</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920040</v>
+        <v>18330051920041</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920042</v>
+        <v>18330051920041</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -2627,110 +2621,110 @@
         <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920042</v>
+        <v>18330051920045</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920042</v>
+        <v>18330051920045</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920042</v>
+        <v>18330051920044</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920042</v>
+        <v>18330051920044</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920042</v>
+        <v>18330051920044</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -2738,99 +2732,99 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920041</v>
+        <v>18330051920044</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920041</v>
+        <v>18330051920051</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920041</v>
+        <v>18330051920051</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920041</v>
+        <v>18330051920051</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920041</v>
+        <v>18330051920049</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2838,116 +2832,116 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920041</v>
+        <v>18330051920049</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920045</v>
+        <v>18330051920049</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920045</v>
+        <v>18330051920049</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920045</v>
+        <v>18330051920053</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920045</v>
+        <v>18330051920053</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920045</v>
+        <v>18330051920053</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -2958,36 +2952,36 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920044</v>
+        <v>18330051920053</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920044</v>
+        <v>18330051920058</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2998,39 +2992,39 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920044</v>
+        <v>18330051920058</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920044</v>
+        <v>18330051920058</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
@@ -3038,59 +3032,59 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920044</v>
+        <v>18330051920066</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920044</v>
+        <v>18330051920066</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920051</v>
+        <v>18330051920066</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -3098,159 +3092,159 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920051</v>
+        <v>18330051920066</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920051</v>
+        <v>18330051920063</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920051</v>
+        <v>18330051920063</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920051</v>
+        <v>18330051920063</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920049</v>
+        <v>18330051920064</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920049</v>
+        <v>18330051920064</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920049</v>
+        <v>18330051920068</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920049</v>
+        <v>18330051920068</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -3258,16 +3252,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920049</v>
+        <v>18330051920068</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -3278,16 +3272,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920049</v>
+        <v>18330051920068</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -3298,99 +3292,99 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920053</v>
+        <v>18330051920054</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920053</v>
+        <v>18330051920054</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920053</v>
+        <v>18330051920071</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920053</v>
+        <v>18330051920071</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920053</v>
+        <v>18330051920071</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3398,99 +3392,99 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920053</v>
+        <v>18330051920071</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920058</v>
+        <v>18330051920073</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920058</v>
+        <v>18330051920073</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920058</v>
+        <v>18330051920073</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920058</v>
+        <v>18330051920073</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3498,16 +3492,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920058</v>
+        <v>18330051920075</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -3518,136 +3512,136 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920058</v>
+        <v>18330051920075</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920066</v>
+        <v>18330051920077</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920066</v>
+        <v>18330051920077</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920066</v>
+        <v>18330051920077</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920066</v>
+        <v>18330051920077</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920066</v>
+        <v>18330051920080</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920066</v>
+        <v>18330051920080</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -3658,56 +3652,56 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>18330051920063</v>
+        <v>18330051920055</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>18330051920063</v>
+        <v>18330051920055</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>18330051920063</v>
+        <v>18330051920055</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -3718,1161 +3712,81 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>18330051920063</v>
+        <v>17330051920470</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18330051920063</v>
+        <v>17330051920470</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18330051920064</v>
+        <v>17330051920470</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920064</v>
+        <v>17330051920470</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920064</v>
-      </c>
-      <c r="B73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920064</v>
-      </c>
-      <c r="B74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920064</v>
-      </c>
-      <c r="B75" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920068</v>
-      </c>
-      <c r="B76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920068</v>
-      </c>
-      <c r="B77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920068</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920068</v>
-      </c>
-      <c r="B79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920068</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920068</v>
-      </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920054</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920054</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920054</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920054</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920054</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920071</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920071</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920071</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920071</v>
-      </c>
-      <c r="B90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920071</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920071</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920073</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920073</v>
-      </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920073</v>
-      </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920073</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920073</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920073</v>
-      </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920075</v>
-      </c>
-      <c r="B99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920075</v>
-      </c>
-      <c r="B100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920075</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920075</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" t="s">
-        <v>81</v>
-      </c>
-      <c r="D102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920075</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920077</v>
-      </c>
-      <c r="B104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920077</v>
-      </c>
-      <c r="B105" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>82</v>
-      </c>
-      <c r="D105" t="s">
-        <v>103</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920077</v>
-      </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" t="s">
-        <v>103</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920077</v>
-      </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" t="s">
-        <v>103</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920077</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>82</v>
-      </c>
-      <c r="D108" t="s">
-        <v>103</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920077</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" t="s">
-        <v>103</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920080</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" t="s">
-        <v>104</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920080</v>
-      </c>
-      <c r="B111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920080</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" t="s">
-        <v>104</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920080</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920080</v>
-      </c>
-      <c r="B114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920055</v>
-      </c>
-      <c r="B115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920055</v>
-      </c>
-      <c r="B116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" t="s">
-        <v>84</v>
-      </c>
-      <c r="D116" t="s">
-        <v>105</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920055</v>
-      </c>
-      <c r="B117" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920055</v>
-      </c>
-      <c r="B118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" t="s">
-        <v>105</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920055</v>
-      </c>
-      <c r="B119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" t="s">
-        <v>105</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920055</v>
-      </c>
-      <c r="B120" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" t="s">
-        <v>105</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>17330051920470</v>
-      </c>
-      <c r="B121" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" t="s">
-        <v>85</v>
-      </c>
-      <c r="D121" t="s">
-        <v>106</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>17330051920470</v>
-      </c>
-      <c r="B122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" t="s">
-        <v>106</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>17330051920470</v>
-      </c>
-      <c r="B123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
-      </c>
-      <c r="D123" t="s">
-        <v>106</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>17330051920470</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>85</v>
-      </c>
-      <c r="D124" t="s">
-        <v>106</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>17330051920470</v>
-      </c>
-      <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" t="s">
-        <v>85</v>
-      </c>
-      <c r="D125" t="s">
-        <v>106</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>17330051920470</v>
-      </c>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" t="s">
-        <v>85</v>
-      </c>
-      <c r="D126" t="s">
-        <v>106</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4924,89 +3838,89 @@
         <v>89</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920049</v>
+        <v>18330051920044</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920071</v>
+        <v>18330051920049</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920077</v>
+        <v>18330051920053</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920068</v>
+        <v>18330051920066</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920051</v>
+        <v>18330051920068</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5014,16 +3928,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920058</v>
+        <v>18330051920071</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -5048,50 +3962,50 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920040</v>
+        <v>18330051920077</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920042</v>
+        <v>17330051920470</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920053</v>
+        <v>18330051920039</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5099,16 +4013,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920066</v>
+        <v>18330051920040</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5116,16 +4030,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920063</v>
+        <v>18330051920042</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5133,16 +4047,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920055</v>
+        <v>18330051920051</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -5150,121 +4064,121 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920064</v>
+        <v>18330051920058</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920039</v>
+        <v>18330051920063</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920075</v>
+        <v>18330051920055</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17330051920470</v>
+        <v>18330051920045</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920045</v>
+        <v>18330051920064</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920044</v>
+        <v>18330051920054</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920054</v>
+        <v>18330051920075</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5281,7 +4195,7 @@
         <v>104</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +4205,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5321,7 +4235,145 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920045</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920080</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920080</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6BEV - Estadisticos 2020.xlsx
+++ b/grupos/6BEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="107">
   <si>
     <t>Materia</t>
   </si>
@@ -146,21 +146,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
     <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -182,163 +182,163 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
     <t>APARICIO</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>JOSUE ISAAC</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>OSWALDO VIDAL</t>
+  </si>
+  <si>
+    <t>JESUS DAVID</t>
+  </si>
+  <si>
+    <t>VICTOR JAVIER</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>JOSE IMANOL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
   </si>
   <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
     <t>RAMON</t>
   </si>
   <si>
-    <t>RICO</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>NICANOR</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
     <t>VEGA</t>
   </si>
   <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
     <t>VELAZCO</t>
   </si>
   <si>
     <t>DIAZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>ALMANZA</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>JOSE ARMANDO</t>
-  </si>
-  <si>
-    <t>ARMANDO</t>
-  </si>
-  <si>
-    <t>JOSUE ISAAC</t>
-  </si>
-  <si>
     <t>JEAN PIERRE</t>
   </si>
   <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>OSWALDO VIDAL</t>
-  </si>
-  <si>
-    <t>JESUS DAVID</t>
-  </si>
-  <si>
-    <t>VICTOR JAVIER</t>
-  </si>
-  <si>
-    <t>LEONEL</t>
-  </si>
-  <si>
     <t>JOSE MANUEL</t>
   </si>
   <si>
-    <t>JOSE IMANOL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
     <t>UZIEL ALEJANDRO</t>
   </si>
   <si>
-    <t>CARLOS FERNANDO</t>
-  </si>
-  <si>
     <t>MARIO</t>
-  </si>
-  <si>
-    <t>NESTOR</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1064,10 +1064,10 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1123,10 +1123,10 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -1182,7 +1182,7 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1300,10 +1300,10 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1359,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>8</v>
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1477,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1533,10 +1533,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1592,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1654,10 +1654,10 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -1754,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -1772,7 +1772,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -1813,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -1831,7 +1831,7 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -1890,10 +1890,10 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -2008,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -2067,7 +2067,7 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2158,22 +2158,25 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="G2">
         <v>68.18000000000001</v>
       </c>
+      <c r="H2">
+        <v>6.3</v>
+      </c>
       <c r="I2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2187,27 +2190,30 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="G3">
-        <v>54.55</v>
+        <v>22.73</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2219,91 +2225,91 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>31.82</v>
       </c>
       <c r="G4">
+        <v>27.27</v>
+      </c>
+      <c r="H4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
         <v>68.18000000000001</v>
-      </c>
-      <c r="H4">
-        <v>6.3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
       <c r="G5">
-        <v>27.27</v>
+        <v>63.64</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>68.18000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>36.36</v>
+        <v>54.55</v>
       </c>
       <c r="G6">
-        <v>63.64</v>
+        <v>45.45</v>
       </c>
       <c r="H6">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -2312,25 +2318,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>45.45</v>
+        <v>77.27</v>
       </c>
       <c r="G7">
-        <v>54.55</v>
+        <v>4.55</v>
       </c>
       <c r="H7">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>54.55</v>
+        <v>22.73</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2378,16 +2384,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2398,16 +2404,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2418,16 +2424,16 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2438,16 +2444,16 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2458,30 +2464,30 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920040</v>
+        <v>18330051920042</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2498,56 +2504,56 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920042</v>
+        <v>18330051920041</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920042</v>
+        <v>18330051920041</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2558,16 +2564,16 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2578,90 +2584,90 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920041</v>
+        <v>18330051920044</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920041</v>
+        <v>18330051920044</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920045</v>
+        <v>18330051920051</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920045</v>
+        <v>18330051920051</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -2672,216 +2678,216 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920044</v>
+        <v>18330051920049</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920044</v>
+        <v>18330051920049</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920044</v>
+        <v>18330051920049</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920044</v>
+        <v>18330051920049</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920051</v>
+        <v>18330051920053</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920051</v>
+        <v>18330051920053</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920051</v>
+        <v>18330051920058</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920049</v>
+        <v>18330051920058</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920049</v>
+        <v>18330051920066</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920049</v>
+        <v>18330051920066</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920049</v>
+        <v>18330051920063</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920053</v>
+        <v>18330051920068</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>46</v>
@@ -2912,36 +2918,36 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920053</v>
+        <v>18330051920068</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920053</v>
+        <v>18330051920068</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -2952,79 +2958,79 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920053</v>
+        <v>18330051920068</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920058</v>
+        <v>18330051920071</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920058</v>
+        <v>18330051920071</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920058</v>
+        <v>18330051920071</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
@@ -3032,99 +3038,99 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920066</v>
+        <v>18330051920073</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920066</v>
+        <v>18330051920073</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920066</v>
+        <v>18330051920073</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920066</v>
+        <v>18330051920077</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920063</v>
+        <v>18330051920077</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
@@ -3132,56 +3138,56 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920063</v>
+        <v>18330051920077</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920063</v>
+        <v>18330051920077</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920064</v>
+        <v>18330051920055</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -3192,39 +3198,39 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920064</v>
+        <v>18330051920055</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920068</v>
+        <v>17330051920470</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
@@ -3232,562 +3238,42 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920068</v>
+        <v>17330051920470</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920068</v>
+        <v>17330051920470</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920068</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920054</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920054</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920071</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920071</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920071</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920071</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920073</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920073</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920073</v>
-      </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920073</v>
-      </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920075</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920075</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920077</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920077</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920077</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920077</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920080</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920080</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920055</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920055</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920055</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>17330051920470</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>17330051920470</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>17330051920470</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>17330051920470</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3832,10 +3318,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3843,16 +3329,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920044</v>
+        <v>18330051920049</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3860,16 +3346,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920049</v>
+        <v>18330051920068</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -3877,16 +3363,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920053</v>
+        <v>18330051920077</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3894,223 +3380,223 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920066</v>
+        <v>18330051920039</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920068</v>
+        <v>18330051920071</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920071</v>
+        <v>18330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920073</v>
+        <v>17330051920470</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920077</v>
+        <v>18330051920040</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>17330051920470</v>
+        <v>18330051920042</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920039</v>
+        <v>18330051920044</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920040</v>
+        <v>18330051920051</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920042</v>
+        <v>18330051920053</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920051</v>
+        <v>18330051920058</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920058</v>
+        <v>18330051920066</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920063</v>
+        <v>18330051920055</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920055</v>
+        <v>18330051920063</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4118,16 +3604,16 @@
         <v>18330051920045</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4135,16 +3621,16 @@
         <v>18330051920064</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4152,16 +3638,16 @@
         <v>18330051920054</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4169,16 +3655,16 @@
         <v>18330051920075</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4186,16 +3672,16 @@
         <v>18330051920080</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4240,22 +3726,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920045</v>
+        <v>18330051920044</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -4263,22 +3749,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920045</v>
+        <v>18330051920044</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -4286,94 +3772,71 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920054</v>
+        <v>18330051920064</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920054</v>
+        <v>18330051920064</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920080</v>
+        <v>18330051920075</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920080</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6BEV - Estadisticos 2020.xlsx
+++ b/grupos/6BEV - Estadisticos 2020.xlsx
@@ -3230,10 +3230,10 @@
         <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3250,10 +3250,10 @@
         <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3270,10 +3270,10 @@
         <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
